--- a/fullmodel_ANOVA.xlsx
+++ b/fullmodel_ANOVA.xlsx
@@ -1,21 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vanderbilt365-my.sharepoint.com/personal/lindsay_e_martin_vanderbilt_edu/Documents/Hillyer_Lab/Lytic_Immunity/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_0E67FDCE8F79A8D366075C52F3894A32E16BCFE1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A4B91A3-1D98-4116-9609-29BBFABA1E8A}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Parameter</t>
+  </si>
+  <si>
+    <t>Sum_Squares</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>Mean_Square</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>poly(Temperature_centered, 2)</t>
+  </si>
+  <si>
+    <t>poly(Age_centered, 2)</t>
+  </si>
+  <si>
+    <t>Treatment:Temperature_centered</t>
+  </si>
+  <si>
+    <t>poly(Temperature_centered, 2):poly(Age_centered, 2)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,13 +107,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +159,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +193,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +228,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,53 +404,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Parameter</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Sum_Squares</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>df</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mean_Square</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>p</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Treatment</t>
-        </is>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>51.57480074650947</v>
+        <v>51.574800746509467</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -405,39 +447,35 @@
         <v>17.19160024883649</v>
       </c>
       <c r="E2">
-        <v>42.63581069111012</v>
+        <v>42.635810691110123</v>
       </c>
       <c r="F2">
-        <v>1.4877525412399e-22</v>
+        <v>1.4877525412399001E-22</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>poly(Temperature_centered, 2)</t>
-        </is>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>9.606282423827539</v>
+        <v>9.6062824238275386</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3">
-        <v>4.803141211913769</v>
+        <v>4.8031412119137693</v>
       </c>
       <c r="E3">
         <v>11.91143148426668</v>
       </c>
       <c r="F3">
-        <v>1.08952631590307e-05</v>
+        <v>1.0895263159030699E-5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>poly(Age_centered, 2)</t>
-        </is>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
       </c>
       <c r="B4">
         <v>2.257700190548344</v>
@@ -452,39 +490,35 @@
         <v>2.799561385420577</v>
       </c>
       <c r="F4">
-        <v>0.06251250411301719</v>
+        <v>6.2512504113017189E-2</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Treatment:Temperature_centered</t>
-        </is>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>7.938132300172329</v>
+        <v>7.9381323001723292</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2.646044100057443</v>
+        <v>2.6460441000574431</v>
       </c>
       <c r="E5">
         <v>6.562298176010704</v>
       </c>
       <c r="F5">
-        <v>0.0002707141855834421</v>
+        <v>2.7071418558344208E-4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>poly(Temperature_centered, 2):poly(Age_centered, 2)</t>
-        </is>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>5.359318832893106</v>
+        <v>5.3593188328931056</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -493,17 +527,10 @@
         <v>1.339829708223276</v>
       </c>
       <c r="E6">
-        <v>3.322742725729183</v>
+        <v>3.3227427257291828</v>
       </c>
       <c r="F6">
-        <v>0.01111094441889909</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Temperature_centered</t>
-        </is>
+        <v>1.111094441889909E-2</v>
       </c>
     </row>
   </sheetData>
